--- a/similarities/split_global/harmonic_similarity_timestamps_210.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_210.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,714 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'A:min/C']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D'], ['A:7', 'D', 'E:min']]</t>
+          <t>['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:17.920000'), ('0:00:25.900000', '0:00:30.280000')]</t>
+          <t>('0:00:08.720000', '0:00:14.060000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329'), ('0:01:11.679925', '0:01:16.022057')]</t>
+          <t>('0:00:00.421247', '0:00:08.635573')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=25.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=71.679925']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D/5', 'E/4', 'A']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.935986', '0:00:12.498707')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:05.544000', '0:00:09.340000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=7.935986']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=5.544']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:min7/b7', 'C:maj', 'F/5', 'C:maj', 'D:min7/b7', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Db:maj6/2', 'Ab', 'Db', 'Ab', 'Db:maj6/2', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:08.557000', '0:00:20.792000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:55.348000', '0:01:26.259000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=8.557</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=55.348</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B:7']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:59.180000')]</t>
+          <t>('0:00:11.100000', '0:00:21.800000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=100.569342']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=11.1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['Bb', 'Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:01:00.761383', '0:01:11.001383')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:27.360000', '0:00:34.920000')]</t>
+          <t>('0:02:34.020000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['G', 'C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:01:14.879000', '0:01:27.795000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:08.158789', '0:00:24.401147')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:21.780000', '0:00:25.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>jaah_38</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'G#']]</t>
+          <t>['A:min7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'B']]</t>
+          <t>['C:min7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.833038', '0:00:12.405827')]</t>
+          <t>('0:00:49.350000', '0:00:56.630000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.731000', '0:00:26.141000')]</t>
+          <t>('0:00:25.570000', '0:00:27.790000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=6.833038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-38#t=49.35</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=19.731']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=25.57</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F', 'G', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:21.224000', '0:00:29.739000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.700000', '0:00:57.940000'), ('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:00:07.525011', '0:00:12.668231')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=21.224</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=7.525011</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:09.607823')]</t>
+          <t>('0:00:46.120000', '0:00:50.740000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:12.040000')]</t>
+          <t>('0:00:37.840000', '0:00:45.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.680000', '0:00:07.500000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['A', 'A:7/3', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:14.541510', '0:00:23.411533')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'F:min/5', 'C:min', 'F:min/5', 'C:min']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:maj', 'E:min', 'A:min', 'E:min', 'A:min', 'E:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.285000', '0:00:26.622000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:38.795000', '0:00:51.855000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=11.285']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=38.795']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['D:7', 'G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C#:7', 'F#:7', 'B:7', 'E:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+          <t>('0:00:17.150000', '0:00:25.320000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:41.100000', '0:00:44.830000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=17.15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=41.1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
